--- a/Dataset/Folds/Fold_1/Excel/93.xlsx
+++ b/Dataset/Folds/Fold_1/Excel/93.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4445" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4973" uniqueCount="704">
   <si>
     <t>Doi</t>
   </si>
@@ -2181,6 +2181,210 @@
   </si>
   <si>
     <t>[Xian%Zhou%NULL%1,                           Jingkang%Zhu%NULL%1,                           Tao%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%0,                            Feng%Wang%NULL%0,                            Peng%Chen%NULL%1,                            Jiangang%Jiang%NULL%0,                            Guanglin%Cui%NULL%1,                            Ning%Zhou%NULL%0,                            Francesco%Moroni%NULL%1,                            Javid J.%Moslehi%NULL%0,                            Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%0,                            Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%NULL%0,                            Giuseppe%De Matteis%giuseppe.dematteis@policlinicogemelli.it%1,                            Maria Livia%Burzo%NULL%2,                            Maria Livia%Burzo%NULL%0,                            Michele%Santoro%NULL%1,                            Mariella%Fuorlo%NULL%1,                            Luca%Sabia%NULL%1,                            Claudio%Sandroni%NULL%1,                            Antonio%Gasbarrini%NULL%0,                            Francesco%Franceschi%NULL%1,                            Giovanni%Gambassi%NULL%1,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C%Felice%NULL%1,                            C%Nardin%NULL%1,                            G L%Di Tanna%NULL%1,                            U%Grossi%NULL%1,                            E%Bernardi%NULL%1,                            L%Scaldaferri%NULL%1,                            M%Romagnoli%NULL%1,                            L%Tonon%NULL%1,                            P%Cavasin%NULL%1,                            S%Novello%NULL%1,                            R%Scarpa%NULL%1,                            A%Farnia%NULL%1,                            E%De Menis%NULL%1,                            R%Rigoli%NULL%1,                            F%Cinetto%NULL%1,                            P%Pauletto%NULL%1,                            C%Agostini%NULL%1,                            M%Rattazzi%marcello.rattazzi@unipd.it%1]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%0,                            Jiatian%Cao%NULL%1,                            Yumeng%Yao%NULL%1,                            Xuejuan%Jin%NULL%1,                            Zhe%Luo%NULL%1,                            Yuan%Xue%NULL%1,                            Chouwen%Zhu%NULL%1,                            Yanan%Song%NULL%1,                            Ying%Wang%NULL%0,                            Yunzeng%Zou%NULL%1,                            Juying%Qian%NULL%1,                            Kaihuan%Yu%NULL%1,                            Hui%Gong%NULL%1,                            Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%0,                            Kenneth W%Chow%NULL%1,                            Jonathan%Vo%NULL%1,                            Wei%Hou%NULL%0,                            Haifang%Li%NULL%0,                            Paul S%Richman%NULL%1,                            Sandeep K%Mallipattu%NULL%1,                            Hal A%Skopicki%NULL%1,                            Adam J%Singer%NULL%1,                            Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%0,                            Yi%Liu%NULL%0,                            Keliang%Chen%NULL%1,                            Suying%Yan%NULL%1,                            Xiangrong%Bai%NULL%1,                            Juan%Li%947281063@qq.com%0,                            Dong%Liu%ld2069@outlook.com%0,                            Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,                            Guohui%Xiao%NULL%1,                            Juanjuan%Zhang%NULL%1,                            Xing%He%NULL%1,                            Min%Ou%NULL%1,                            Jing%Bi%NULL%1,                            Rongqing%Yang%NULL%1,                            Wencheng%Di%NULL%1,                            Zhaoqin%Wang%NULL%1,                            Zigang%Li%NULL%1,                            Hong%Gao%NULL%0,                            Lei%Liu%NULL%0,                            Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%0,                            Paolo%Maggi%NULL%2,                            Paolo%Maggi%NULL%0,                            Vincenzo%Messina%NULL%1,                            Pasquale%Iuliano%NULL%2,                            Pasquale%Iuliano%NULL%0,                            Antonio%Sardu%NULL%1,                            Vincenzo%Iovinella%NULL%1,                            Giuseppe%Paolisso%NULL%1,                            Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%0,                            Rasimcan%Meral%NULL%1,                            Alpay%Medetalibeyoğlu%NULL%1,                            Hilal%Konyaoğlu%NULL%1,                            Murat%Köse%NULL%1,                            Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhongchao%Wang%NULL%1,                            Dewei%Zhang%NULL%1,                            Shengming%Wang%NULL%1,                            Yanhua%Jin%NULL%1,                            Jianbo%Huan%NULL%1,                            Yue%Wu%NULL%0,                            Cheng%Xia%NULL%1,                            Zhe%Li%NULL%1,                            Xingshun%Qi%NULL%1,                            Duanzhen%Zhang%NULL%1,                            Xiumin%Han%NULL%1,                            Xianyang%Zhu%NULL%1,                            Ying%Qu%NULL%1,                            Qiguang%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Honglu%Zhou%NULL%1,                            Songmei%Wang%NULL%1,                            Lorenz%von Seidlein%NULL%1,                            Xuanyi%Wang%xywang@shmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%0,                            Dan%Liu%NULL%0,                            Shaoqing%Zeng%NULL%1,                            Siyuan%Wang%NULL%1,                            Sen%Xu%NULL%0,                            Ya%Wang%NULL%0,                            Ruidi%Yu%NULL%1,                            Yue%Gao%NULL%0,                            Huayi%Li%NULL%1,                            Xinxia%Feng%NULL%1,                            Ning%Zhou%NULL%0,                            Chunxia%Zhao%NULL%1,                            Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,                            Lihua%Zhu%NULL%0,                            Jingjing%Cai%NULL%0,                            Fang%Lei%NULL%0,                            Juan-Juan%Qin%NULL%0,                            Jing%Xie%NULL%2,                            Ye-Mao%Liu%NULL%0,                            Yan-Ci%Zhao%NULL%1,                            Xuewei%Huang%NULL%0,                            Lijin%Lin%NULL%0,                            Meng%Xia%NULL%0,                            Ming-Ming%Chen%NULL%0,                            Xu%Cheng%NULL%1,                            Xiao%Zhang%NULL%0,                            Deliang%Guo%NULL%1,                            Yuanyuan%Peng%NULL%1,                            Yan-Xiao%Ji%NULL%0,                            Jing%Chen%NULL%0,                            Zhi-Gang%She%NULL%0,                            Yibin%Wang%NULL%0,                            Qingbo%Xu%NULL%0,                            Renfu%Tan%NULL%1,                            Haitao%Wang%NULL%1,                            Jun%Lin%NULL%2,                            Pengcheng%Luo%NULL%1,                            Shouzhi%Fu%NULL%0,                            Hongbin%Cai%NULL%1,                            Ping%Ye%NULL%0,                            Bing%Xiao%NULL%1,                            Weiming%Mao%NULL%0,                            Liming%Liu%NULL%1,                            Youqin%Yan%NULL%2,                            Mingyu%Liu%NULL%1,                            Manhua%Chen%NULL%1,                            Xiao-Jing%Zhang%NULL%0,                            Xinghuan%Wang%NULL%0,                            Rhian M.%Touyz%NULL%1,                            Jiahong%Xia%NULL%0,                            Bing-Hong%Zhang%NULL%0,                            Xiaodong%Huang%NULL%0,                            Yufeng%Yuan%NULL%0,                            Rohit%Loomba%NULL%1,                            Peter P.%Liu%NULL%1,                            Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhou%NULL%1,                            Jingkang%Zhu%NULL%1,                            Tao%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%0,                             Feng%Wang%NULL%0,                             Peng%Chen%NULL%1,                             Jiangang%Jiang%NULL%0,                             Guanglin%Cui%NULL%1,                             Ning%Zhou%NULL%0,                             Francesco%Moroni%NULL%1,                             Javid J.%Moslehi%NULL%0,                             Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%0,                             Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%NULL%0,                             Giuseppe%De Matteis%giuseppe.dematteis@policlinicogemelli.it%1,                             Maria Livia%Burzo%NULL%2,                             Maria Livia%Burzo%NULL%0,                             Michele%Santoro%NULL%1,                             Mariella%Fuorlo%NULL%1,                             Luca%Sabia%NULL%1,                             Claudio%Sandroni%NULL%1,                             Antonio%Gasbarrini%NULL%0,                             Francesco%Franceschi%NULL%1,                             Giovanni%Gambassi%NULL%1,                             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C%Felice%NULL%1,                             C%Nardin%NULL%1,                             G L%Di Tanna%NULL%1,                             U%Grossi%NULL%1,                             E%Bernardi%NULL%1,                             L%Scaldaferri%NULL%1,                             M%Romagnoli%NULL%1,                             L%Tonon%NULL%1,                             P%Cavasin%NULL%1,                             S%Novello%NULL%1,                             R%Scarpa%NULL%1,                             A%Farnia%NULL%1,                             E%De Menis%NULL%1,                             R%Rigoli%NULL%1,                             F%Cinetto%NULL%1,                             P%Pauletto%NULL%1,                             C%Agostini%NULL%1,                             M%Rattazzi%marcello.rattazzi@unipd.it%1]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%0,                             Jiatian%Cao%NULL%1,                             Yumeng%Yao%NULL%1,                             Xuejuan%Jin%NULL%1,                             Zhe%Luo%NULL%1,                             Yuan%Xue%NULL%1,                             Chouwen%Zhu%NULL%1,                             Yanan%Song%NULL%1,                             Ying%Wang%NULL%0,                             Yunzeng%Zou%NULL%1,                             Juying%Qian%NULL%1,                             Kaihuan%Yu%NULL%1,                             Hui%Gong%NULL%1,                             Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%0,                             Kenneth W%Chow%NULL%1,                             Jonathan%Vo%NULL%1,                             Wei%Hou%NULL%0,                             Haifang%Li%NULL%0,                             Paul S%Richman%NULL%1,                             Sandeep K%Mallipattu%NULL%1,                             Hal A%Skopicki%NULL%1,                             Adam J%Singer%NULL%1,                             Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%0,                             Yi%Liu%NULL%0,                             Keliang%Chen%NULL%1,                             Suying%Yan%NULL%1,                             Xiangrong%Bai%NULL%1,                             Juan%Li%947281063@qq.com%0,                             Dong%Liu%ld2069@outlook.com%0,                             Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,                             Guohui%Xiao%NULL%1,                             Juanjuan%Zhang%NULL%1,                             Xing%He%NULL%1,                             Min%Ou%NULL%1,                             Jing%Bi%NULL%1,                             Rongqing%Yang%NULL%1,                             Wencheng%Di%NULL%1,                             Zhaoqin%Wang%NULL%1,                             Zigang%Li%NULL%1,                             Hong%Gao%NULL%0,                             Lei%Liu%NULL%0,                             Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%0,                             Paolo%Maggi%NULL%2,                             Paolo%Maggi%NULL%0,                             Vincenzo%Messina%NULL%1,                             Pasquale%Iuliano%NULL%2,                             Pasquale%Iuliano%NULL%0,                             Antonio%Sardu%NULL%1,                             Vincenzo%Iovinella%NULL%1,                             Giuseppe%Paolisso%NULL%1,                             Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%0,                             Rasimcan%Meral%NULL%1,                             Alpay%Medetalibeyoğlu%NULL%1,                             Hilal%Konyaoğlu%NULL%1,                             Murat%Köse%NULL%1,                             Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhongchao%Wang%NULL%1,                             Dewei%Zhang%NULL%1,                             Shengming%Wang%NULL%1,                             Yanhua%Jin%NULL%1,                             Jianbo%Huan%NULL%1,                             Yue%Wu%NULL%1,                             Cheng%Xia%NULL%1,                             Zhe%Li%NULL%1,                             Xingshun%Qi%NULL%1,                             Duanzhen%Zhang%NULL%1,                             Xiumin%Han%NULL%1,                             Xianyang%Zhu%NULL%1,                             Ying%Qu%NULL%1,                             Qiguang%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Honglu%Zhou%NULL%1,                             Songmei%Wang%NULL%1,                             Lorenz%von Seidlein%NULL%1,                             Xuanyi%Wang%xywang@shmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%0,                             Dan%Liu%NULL%0,                             Shaoqing%Zeng%NULL%1,                             Siyuan%Wang%NULL%1,                             Sen%Xu%NULL%0,                             Ya%Wang%NULL%0,                             Ruidi%Yu%NULL%1,                             Yue%Gao%NULL%0,                             Huayi%Li%NULL%1,                             Xinxia%Feng%NULL%1,                             Ning%Zhou%NULL%0,                             Chunxia%Zhao%NULL%1,                             Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,                             Lihua%Zhu%NULL%0,                             Jingjing%Cai%NULL%0,                             Fang%Lei%NULL%0,                             Juan-Juan%Qin%NULL%0,                             Jing%Xie%NULL%2,                             Ye-Mao%Liu%NULL%0,                             Yan-Ci%Zhao%NULL%1,                             Xuewei%Huang%NULL%0,                             Lijin%Lin%NULL%0,                             Meng%Xia%NULL%0,                             Ming-Ming%Chen%NULL%0,                             Xu%Cheng%NULL%1,                             Xiao%Zhang%NULL%0,                             Deliang%Guo%NULL%1,                             Yuanyuan%Peng%NULL%1,                             Yan-Xiao%Ji%NULL%0,                             Jing%Chen%NULL%0,                             Zhi-Gang%She%NULL%0,                             Yibin%Wang%NULL%0,                             Qingbo%Xu%NULL%0,                             Renfu%Tan%NULL%1,                             Haitao%Wang%NULL%1,                             Jun%Lin%NULL%2,                             Pengcheng%Luo%NULL%1,                             Shouzhi%Fu%NULL%0,                             Hongbin%Cai%NULL%1,                             Ping%Ye%NULL%0,                             Bing%Xiao%NULL%1,                             Weiming%Mao%NULL%0,                             Liming%Liu%NULL%1,                             Youqin%Yan%NULL%2,                             Mingyu%Liu%NULL%1,                             Manhua%Chen%NULL%1,                             Xiao-Jing%Zhang%NULL%0,                             Xinghuan%Wang%NULL%0,                             Rhian M.%Touyz%NULL%1,                             Jiahong%Xia%NULL%0,                             Bing-Hong%Zhang%NULL%0,                             Xiaodong%Huang%NULL%0,                             Yufeng%Yuan%NULL%0,                             Rohit%Loomba%NULL%1,                             Peter P.%Liu%NULL%1,                             Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xian%Zhou%NULL%1,                             Jingkang%Zhu%NULL%1,                             Tao%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%0, Feng%Wang%NULL%0, Peng%Chen%NULL%0, Jiangang%Jiang%NULL%0, Guanglin%Cui%NULL%0, Ning%Zhou%NULL%0, Francesco%Moroni%NULL%0, Javid J.%Moslehi%NULL%0, Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%0, Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t>[Marcello%Covino%NULL%0, Giuseppe%De Matteis%giuseppe.dematteis@policlinicogemelli.it%0, Maria Livia%Burzo%NULL%2, Maria Livia%Burzo%NULL%0, Michele%Santoro%NULL%0, Mariella%Fuorlo%NULL%1, Luca%Sabia%NULL%0, Claudio%Sandroni%NULL%1, Antonio%Gasbarrini%NULL%0, Francesco%Franceschi%NULL%0, Giovanni%Gambassi%NULL%1, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>John Wiley &amp;amp; Sons Australia, Ltd</t>
+  </si>
+  <si>
+    <t>[C%Felice%NULL%0, C%Nardin%NULL%1, G L%Di Tanna%NULL%1, U%Grossi%NULL%1, E%Bernardi%NULL%1, L%Scaldaferri%NULL%1, M%Romagnoli%NULL%1, L%Tonon%NULL%1, P%Cavasin%NULL%1, S%Novello%NULL%1, R%Scarpa%NULL%1, A%Farnia%NULL%1, E%De Menis%NULL%1, R%Rigoli%NULL%1, F%Cinetto%NULL%1, P%Pauletto%NULL%1, C%Agostini%NULL%1, M%Rattazzi%marcello.rattazzi@unipd.it%1]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%0, Jiatian%Cao%NULL%0, Yumeng%Yao%NULL%0, Xuejuan%Jin%NULL%0, Zhe%Luo%NULL%0, Yuan%Xue%NULL%0, Chouwen%Zhu%NULL%0, Yanan%Song%NULL%0, Ying%Wang%NULL%0, Yunzeng%Zou%NULL%0, Juying%Qian%NULL%0, Kaihuan%Yu%NULL%0, Hui%Gong%NULL%0, Junbo%Ge%NULL%0]</t>
+  </si>
+  <si>
+    <t>AME Publishing Company</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%0, Kenneth W%Chow%NULL%0, Jonathan%Vo%NULL%0, Wei%Hou%NULL%0, Haifang%Li%NULL%0, Paul S%Richman%NULL%0, Sandeep K%Mallipattu%NULL%0, Hal A%Skopicki%NULL%0, Adam J%Singer%NULL%0, Tim Q%Duong%tim.duong@stonybrook.edu%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To evaluate the efficacy of angiotensin‐converting enzyme inhibitors (ACEIs) and angiotensin receptor blockers (ARBs) vs calcium channel blockers (CCBs) on the progression of Corona Virus Disease 2019 (COVID‐19) patients with hypertension in Wuhan.
+ This retrospective single‐center case series analyzed COVID‐19 patients with hypertension, treated with ACEIs/ARBs or CCBs at the Tongji Hospital of Wuhan City, China from 25th January to 15th March 2020. After propensity score matching analysis, 76 patients were selected into two groups.
+ Univariate and multivariable analyses were conducted to determine factors related to improvement measures and outcome measures by Cox proportional hazard regression models.
+ Among 157 patients with confirmed COVID‐19 combined hypertension, including 73 males and 84 females, a median age of 67.28 ± 9.11 vs 65.39 ± 10.85 years.
+ A univariable analysis indicated that clinical classification, lymphocyte count, and interleukin‐2 receptor were associated with a lengthened negative time of nucleic acid, with a significant difference between two groups (P = .
+036).
+ Furthermore, we found no obvious difference in nucleic acid conversion time between ACEIs/ARBs and CCBs groups (hazard ratio [HR]: 0.70; 95% confidence interval [CI]: [0.97, 3.38]; P = .
+18) in the multivariable analysis as well as chest computed tomography improved time (HR: 0.73; 95% CI [0.45, 1.2]; P = .
+87), and hospitalization time between ACEIs/ARBs and CCBs groups (HR: 1.06; 95% CI [0.44, 1.1]; P = .
+83).
+ Our study provided additional evidence of no obvious difference in progress and prognosis between ACEIs/ACEIs and CCBs group, which may suggest ACEIs/ARBs may have scarcely influence on increasing the clinical severe situations of COVID‐19 patients with hypertension.
+</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%0, Yi%Liu%NULL%0, Keliang%Chen%NULL%0, Suying%Yan%NULL%0, Xiangrong%Bai%NULL%0, Juan%Li%947281063@qq.com%0, Dong%Liu%ld2069@outlook.com%0, Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The dysfunction of the renin-angiotensin system (RAS) has been observed in coronavirus infection disease (COVID-19) patients, but whether RAS inhibitors, such as angiotensin-converting enzyme inhibitors (ACEIs) and angiotensin II type 1 receptor blockers (ARBs), are associated with clinical outcomes remains unknown.
+ COVID-19 patients with hypertension were enrolled to evaluate the effect of RAS inhibitors.
+ We observed that patients receiving ACEI or ARB therapy had a lower rate of severe diseases and a trend toward a lower level of IL-6 in peripheral blood.
+ In addition, ACEI or ARB therapy increased CD3 and CD8 T cell counts in peripheral blood and decreased the peak viral load compared to other antihypertensive drugs.
+ This evidence supports the benefit of using ACEIs or ARBs to potentially contribute to the improvement of clinical outcomes of COVID-19 patients with hypertension.
+</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0, Guohui%Xiao%NULL%0, Juanjuan%Zhang%NULL%0, Xing%He%NULL%0, Min%Ou%NULL%0, Jing%Bi%NULL%0, Rongqing%Yang%NULL%0, Wencheng%Di%NULL%0, Zhaoqin%Wang%NULL%0, Zigang%Li%NULL%0, Hong%Gao%NULL%0, Lei%Liu%NULL%0, Guoliang%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>Taylor &amp;amp; Francis</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%0, Paolo%Maggi%NULL%0, Paolo%Maggi%NULL%0, Vincenzo%Messina%NULL%0, Pasquale%Iuliano%NULL%0, Pasquale%Iuliano%NULL%0, Antonio%Sardu%NULL%0, Vincenzo%Iovinella%NULL%0, Giuseppe%Paolisso%NULL%0, Raffaele%Marfella%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%0, Rasimcan%Meral%NULL%0, Alpay%Medetalibeyoğlu%NULL%0, Hilal%Konyaoğlu%NULL%0, Murat%Köse%NULL%0, Tufan%Tükek%NULL%0]</t>
+  </si>
+  <si>
+    <t>Kare Publishing</t>
+  </si>
+  <si>
+    <t>[Zhongchao%Wang%NULL%0, Dewei%Zhang%NULL%1, Shengming%Wang%NULL%1, Yanhua%Jin%NULL%1, Jianbo%Huan%NULL%1, Yue%Wu%NULL%1, Cheng%Xia%NULL%1, Zhe%Li%NULL%0, Xingshun%Qi%NULL%1, Duanzhen%Zhang%NULL%1, Xiumin%Han%NULL%1, Xianyang%Zhu%NULL%1, Ying%Qu%NULL%1, Qiguang%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>International Scientific Literature, Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With the improvements of sanitation and nationwide safe water supply the occurrence of bacterial diarrhea declined remarkably, while viruses became the leading causes of acute gastroenteritis (AGE).
+ Of these viruses, noroviruses (NoVs) are responsible for a considerable burden of gastroenteritis, especially in children &amp;lt; 2 years and elderly ⩾ 65 years.
+ NoVs circulating in the Chinese population are antigenically highly diverse with the genotype GII.
+4 being the dominant strain followed by GII.
+3. Given the widespread contamination in environmental sources, and highly infectious nature of NoVs, vaccination would be the desirable strategy for the control of NoV infections.
+ However, a better understanding of acquired immunity after infection, and a reliable immunological surrogate marker are urgently needed, since two vaccine candidates based on virus-like particles (VLPs) are currently moving into clinical evaluations in China.
+</t>
+  </si>
+  <si>
+    <t>[Honglu%Zhou%NULL%0, Songmei%Wang%NULL%1, Lorenz%von Seidlein%NULL%1, Xuanyi%Wang%xywang@shmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>Higher Education Press</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%0, Dan%Liu%NULL%0, Shaoqing%Zeng%NULL%0, Siyuan%Wang%NULL%0, Sen%Xu%NULL%0, Ya%Wang%NULL%0, Ruidi%Yu%NULL%0, Yue%Gao%NULL%0, Huayi%Li%NULL%0, Xinxia%Feng%NULL%0, Ning%Zhou%NULL%0, Chunxia%Zhao%NULL%0, Qinglei%Gao%NULL%0]</t>
+  </si>
+  <si>
+    <t>The British Infection Association. Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplemental Digital Content is available in the text.
+</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0, Lihua%Zhu%NULL%0, Jingjing%Cai%NULL%0, Fang%Lei%NULL%0, Juan-Juan%Qin%NULL%0, Jing%Xie%NULL%0, Ye-Mao%Liu%NULL%0, Yan-Ci%Zhao%NULL%0, Xuewei%Huang%NULL%0, Lijin%Lin%NULL%0, Meng%Xia%NULL%0, Ming-Ming%Chen%NULL%0, Xu%Cheng%NULL%0, Xiao%Zhang%NULL%0, Deliang%Guo%NULL%0, Yuanyuan%Peng%NULL%0, Yan-Xiao%Ji%NULL%0, Jing%Chen%NULL%0, Zhi-Gang%She%NULL%0, Yibin%Wang%NULL%0, Qingbo%Xu%NULL%0, Renfu%Tan%NULL%0, Haitao%Wang%NULL%0, Jun%Lin%NULL%0, Pengcheng%Luo%NULL%0, Shouzhi%Fu%NULL%0, Hongbin%Cai%NULL%0, Ping%Ye%NULL%0, Bing%Xiao%NULL%0, Weiming%Mao%NULL%0, Liming%Liu%NULL%0, Youqin%Yan%NULL%0, Mingyu%Liu%NULL%0, Manhua%Chen%NULL%0, Xiao-Jing%Zhang%NULL%0, Xinghuan%Wang%NULL%0, Rhian M.%Touyz%NULL%0, Jiahong%Xia%NULL%0, Bing-Hong%Zhang%NULL%0, Xiaodong%Huang%NULL%0, Yufeng%Yuan%NULL%0, Rohit%Loomba%NULL%0, Peter P.%Liu%NULL%0, Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>Lippincott Williams &amp;amp; Wilkins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In December 2019, COVID-19 outbroke in Wuhan, China.
+ The current study aimed to explore the clinical characteristics of COVID-19 complicated by hypertension.
+ In this retrospective, single-center study, we recruited 110 discharged patients with COVID-19 at Wuhan Fourth Hospital in Wuhan, China, from January 25 to February 20, 2020. All study cases were grouped according to whether they had a history of hypertension.
+ Then, a subgroup analysis for all hypertensive patients was carried out based on whether to take ACEI or ARB drugs.
+ The mean age of 110 patients was 57.7 years (range, 25–86 years), of which 60 (54.5%) were male patients.
+ The main underlying diseases included hypertension [36 (32.7%)] and diabetes [11 (10.0%)].
+ Compared with the non-hypertensive group, the lymphocyte count was significantly lower in the hypertensive group (average value, 0.96 × 109/L vs 1.26 × 109/L), and analysis of clinical outcomes showed that the crude mortality rate was higher in the hypertensive group [7/36 (19.4%) vs 2/74 (2.7%)].
+ Patients treated with ACEI or ARB, compared with the control group, were younger (average age, 58.5 years vs 69.2 years), but there was no statistical difference in the crude cure rate [10/15 (66.7%) vs 15/21 (71.4%)] and the crude mortality rate [2/15 (13.3%) vs 5/21 (23.8%)].
+ In conclusions, the COVID-19 patients with a history of hypertension had a significantly lower lymphocyte count on admission.
+ The elderly and comorbidities such as hypertension may together constitute risk factors for poor prognosis in patients with COVID-19. Taking ACEI or ARB drugs may not change the prognosis of COVID-19 patients with hypertension.
+</t>
+  </si>
+  <si>
+    <t>[Xian%Zhou%NULL%0, Jingkang%Zhu%NULL%1, Tao%Xu%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2511,25 +2715,25 @@
         <v>43862.0</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>303</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>629</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
-        <v>471</v>
+        <v>103</v>
       </c>
       <c r="J2" t="s">
         <v>103</v>
@@ -2549,7 +2753,7 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>630</v>
+        <v>675</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -2561,10 +2765,10 @@
         <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>473</v>
+        <v>103</v>
       </c>
       <c r="J3" t="s">
-        <v>103</v>
+        <v>676</v>
       </c>
     </row>
     <row r="4">
@@ -2581,7 +2785,7 @@
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>631</v>
+        <v>677</v>
       </c>
       <c r="F4" t="s">
         <v>48</v>
@@ -2593,10 +2797,10 @@
         <v>49</v>
       </c>
       <c r="I4" t="s">
-        <v>473</v>
+        <v>103</v>
       </c>
       <c r="J4" t="s">
-        <v>103</v>
+        <v>678</v>
       </c>
     </row>
     <row r="5">
@@ -2613,7 +2817,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>632</v>
+        <v>679</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -2625,10 +2829,10 @@
         <v>44</v>
       </c>
       <c r="I5" t="s">
-        <v>473</v>
+        <v>103</v>
       </c>
       <c r="J5" t="s">
-        <v>103</v>
+        <v>680</v>
       </c>
     </row>
     <row r="6">
@@ -2645,7 +2849,7 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>633</v>
+        <v>681</v>
       </c>
       <c r="F6" t="s">
         <v>57</v>
@@ -2657,10 +2861,10 @@
         <v>58</v>
       </c>
       <c r="I6" t="s">
-        <v>473</v>
+        <v>103</v>
       </c>
       <c r="J6" t="s">
-        <v>103</v>
+        <v>682</v>
       </c>
     </row>
     <row r="7">
@@ -2677,7 +2881,7 @@
         <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>634</v>
+        <v>683</v>
       </c>
       <c r="F7" t="s">
         <v>62</v>
@@ -2689,10 +2893,10 @@
         <v>63</v>
       </c>
       <c r="I7" t="s">
-        <v>473</v>
+        <v>103</v>
       </c>
       <c r="J7" t="s">
-        <v>103</v>
+        <v>680</v>
       </c>
     </row>
     <row r="8">
@@ -2706,10 +2910,10 @@
         <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>684</v>
       </c>
       <c r="E8" t="s">
-        <v>635</v>
+        <v>685</v>
       </c>
       <c r="F8" t="s">
         <v>67</v>
@@ -2721,10 +2925,10 @@
         <v>68</v>
       </c>
       <c r="I8" t="s">
-        <v>473</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>676</v>
       </c>
     </row>
     <row r="9">
@@ -2735,25 +2939,25 @@
         <v>44136.0</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>311</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>636</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>471</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
         <v>103</v>
@@ -2770,10 +2974,10 @@
         <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>686</v>
       </c>
       <c r="E10" t="s">
-        <v>637</v>
+        <v>687</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -2785,10 +2989,10 @@
         <v>77</v>
       </c>
       <c r="I10" t="s">
-        <v>473</v>
+        <v>103</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>688</v>
       </c>
     </row>
     <row r="11">
@@ -2799,25 +3003,25 @@
         <v>44075.0</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>314</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>638</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s">
-        <v>471</v>
+        <v>103</v>
       </c>
       <c r="J11" t="s">
         <v>103</v>
@@ -2831,28 +3035,28 @@
         <v>44075.0</v>
       </c>
       <c r="C12" t="s">
-        <v>241</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>242</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>375</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>244</v>
+        <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>527</v>
+        <v>44</v>
       </c>
       <c r="I12" t="s">
         <v>103</v>
       </c>
       <c r="J12" t="s">
-        <v>528</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13">
@@ -2869,7 +3073,7 @@
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>639</v>
+        <v>689</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -2881,10 +3085,10 @@
         <v>86</v>
       </c>
       <c r="I13" t="s">
-        <v>473</v>
+        <v>103</v>
       </c>
       <c r="J13" t="s">
-        <v>103</v>
+        <v>676</v>
       </c>
     </row>
     <row r="14">
@@ -2895,25 +3099,25 @@
         <v>44151.0</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>640</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="H14" t="s">
         <v>44</v>
       </c>
       <c r="I14" t="s">
-        <v>471</v>
+        <v>103</v>
       </c>
       <c r="J14" t="s">
         <v>103</v>
@@ -2933,7 +3137,7 @@
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>641</v>
+        <v>690</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -2945,10 +3149,10 @@
         <v>91</v>
       </c>
       <c r="I15" t="s">
-        <v>473</v>
+        <v>103</v>
       </c>
       <c r="J15" t="s">
-        <v>103</v>
+        <v>691</v>
       </c>
     </row>
     <row r="16">
@@ -2959,28 +3163,28 @@
         <v>44075.0</v>
       </c>
       <c r="C16" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>250</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>379</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>244</v>
+        <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>252</v>
+        <v>44</v>
       </c>
       <c r="I16" t="s">
         <v>103</v>
       </c>
       <c r="J16" t="s">
-        <v>528</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17">
@@ -2997,7 +3201,7 @@
         <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>642</v>
+        <v>692</v>
       </c>
       <c r="F17" t="s">
         <v>95</v>
@@ -3009,10 +3213,10 @@
         <v>96</v>
       </c>
       <c r="I17" t="s">
-        <v>473</v>
+        <v>103</v>
       </c>
       <c r="J17" t="s">
-        <v>103</v>
+        <v>693</v>
       </c>
     </row>
     <row r="18">
@@ -3026,10 +3230,10 @@
         <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>694</v>
       </c>
       <c r="E18" t="s">
-        <v>643</v>
+        <v>695</v>
       </c>
       <c r="F18" t="s">
         <v>100</v>
@@ -3041,10 +3245,10 @@
         <v>101</v>
       </c>
       <c r="I18" t="s">
-        <v>489</v>
+        <v>103</v>
       </c>
       <c r="J18" t="s">
-        <v>103</v>
+        <v>696</v>
       </c>
     </row>
     <row r="19">
@@ -3055,28 +3259,28 @@
         <v>44013.0</v>
       </c>
       <c r="C19" t="s">
-        <v>255</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>256</v>
+        <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>382</v>
+        <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>244</v>
+        <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>535</v>
+        <v>44</v>
       </c>
       <c r="I19" t="s">
         <v>103</v>
       </c>
       <c r="J19" t="s">
-        <v>528</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20">
@@ -3093,7 +3297,7 @@
         <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>644</v>
+        <v>697</v>
       </c>
       <c r="F20" t="s">
         <v>105</v>
@@ -3105,10 +3309,10 @@
         <v>106</v>
       </c>
       <c r="I20" t="s">
-        <v>492</v>
+        <v>103</v>
       </c>
       <c r="J20" t="s">
-        <v>103</v>
+        <v>698</v>
       </c>
     </row>
     <row r="21">
@@ -3122,10 +3326,10 @@
         <v>107</v>
       </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>699</v>
       </c>
       <c r="E21" t="s">
-        <v>645</v>
+        <v>700</v>
       </c>
       <c r="F21" t="s">
         <v>110</v>
@@ -3137,10 +3341,10 @@
         <v>111</v>
       </c>
       <c r="I21" t="s">
-        <v>473</v>
+        <v>103</v>
       </c>
       <c r="J21" t="s">
-        <v>103</v>
+        <v>701</v>
       </c>
     </row>
     <row r="22">
@@ -3154,10 +3358,10 @@
         <v>112</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
+        <v>702</v>
       </c>
       <c r="E22" t="s">
-        <v>646</v>
+        <v>703</v>
       </c>
       <c r="F22" t="s">
         <v>115</v>
@@ -3169,10 +3373,10 @@
         <v>116</v>
       </c>
       <c r="I22" t="s">
-        <v>473</v>
+        <v>103</v>
       </c>
       <c r="J22" t="s">
-        <v>103</v>
+        <v>688</v>
       </c>
     </row>
   </sheetData>
